--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,16 +7,79 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="매출액" sheetId="1" r:id="rId1"/>
+    <sheet name="영업이익" sheetId="2" r:id="rId2"/>
+    <sheet name="영업이익(발표기준)" sheetId="3" r:id="rId3"/>
+    <sheet name="세전계속사업이익" sheetId="4" r:id="rId4"/>
+    <sheet name="당기순이익" sheetId="5" r:id="rId5"/>
+    <sheet name="당기순이익(지배)" sheetId="6" r:id="rId6"/>
+    <sheet name="당기순이익(비지배)" sheetId="7" r:id="rId7"/>
+    <sheet name="자산총계" sheetId="8" r:id="rId8"/>
+    <sheet name="부채총계" sheetId="9" r:id="rId9"/>
+    <sheet name="자본총계" sheetId="10" r:id="rId10"/>
+    <sheet name="자본총계(지배)" sheetId="11" r:id="rId11"/>
+    <sheet name="자본총계(비지배)" sheetId="12" r:id="rId12"/>
+    <sheet name="자본금" sheetId="13" r:id="rId13"/>
+    <sheet name="영업활동현금흐름" sheetId="14" r:id="rId14"/>
+    <sheet name="투자활동현금흐름" sheetId="15" r:id="rId15"/>
+    <sheet name="재무활동현금흐름" sheetId="16" r:id="rId16"/>
+    <sheet name="CAPEX" sheetId="17" r:id="rId17"/>
+    <sheet name="FCF" sheetId="18" r:id="rId18"/>
+    <sheet name="이자발생부채" sheetId="19" r:id="rId19"/>
+    <sheet name="영업이익률" sheetId="20" r:id="rId20"/>
+    <sheet name="순이익률" sheetId="21" r:id="rId21"/>
+    <sheet name="ROE(%)" sheetId="22" r:id="rId22"/>
+    <sheet name="ROA(%)" sheetId="23" r:id="rId23"/>
+    <sheet name="부채비율" sheetId="24" r:id="rId24"/>
+    <sheet name="자본유보율" sheetId="25" r:id="rId25"/>
+    <sheet name="EPS(원)" sheetId="26" r:id="rId26"/>
+    <sheet name="PER(배)" sheetId="27" r:id="rId27"/>
+    <sheet name="BPS(원)" sheetId="28" r:id="rId28"/>
+    <sheet name="PBR(배)" sheetId="29" r:id="rId29"/>
+    <sheet name="현금DPS(원)" sheetId="30" r:id="rId30"/>
+    <sheet name="현금배당수익률" sheetId="31" r:id="rId31"/>
+    <sheet name="현금배당성향(%)" sheetId="32" r:id="rId32"/>
+    <sheet name="발행주식수(보통주)" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="6">
+  <si>
+    <t>corp_nm</t>
+  </si>
+  <si>
+    <t>2016/03</t>
+  </si>
+  <si>
+    <t>2017/03</t>
+  </si>
+  <si>
+    <t>2017/12</t>
+  </si>
+  <si>
+    <t>000220</t>
+  </si>
+  <si>
+    <t>기신정기</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +103,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +421,1452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>697</v>
+      </c>
+      <c r="D2">
+        <v>716</v>
+      </c>
+      <c r="E2">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>737</v>
+      </c>
+      <c r="D2">
+        <v>783</v>
+      </c>
+      <c r="E2">
+        <v>828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>729</v>
+      </c>
+      <c r="D2">
+        <v>772</v>
+      </c>
+      <c r="E2">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <v>78</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-117</v>
+      </c>
+      <c r="D2">
+        <v>98</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-35</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>-27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>139</v>
+      </c>
+      <c r="D2">
+        <v>-22</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-138</v>
+      </c>
+      <c r="D2">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>-32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>174</v>
+      </c>
+      <c r="D2">
+        <v>169</v>
+      </c>
+      <c r="E2">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2.31</v>
+      </c>
+      <c r="D2">
+        <v>5.22</v>
+      </c>
+      <c r="E2">
+        <v>5.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-0.58</v>
+      </c>
+      <c r="D2">
+        <v>8.59</v>
+      </c>
+      <c r="E2">
+        <v>6.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-0.35</v>
+      </c>
+      <c r="D2">
+        <v>7.85</v>
+      </c>
+      <c r="E2">
+        <v>5.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-0.39</v>
+      </c>
+      <c r="D2">
+        <v>5.7</v>
+      </c>
+      <c r="E2">
+        <v>3.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>41.5</v>
+      </c>
+      <c r="D2">
+        <v>42.16</v>
+      </c>
+      <c r="E2">
+        <v>46.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>753.88</v>
+      </c>
+      <c r="D2">
+        <v>809.16</v>
+      </c>
+      <c r="E2">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-34</v>
+      </c>
+      <c r="D2">
+        <v>789</v>
+      </c>
+      <c r="E2">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-390.44</v>
+      </c>
+      <c r="D2">
+        <v>11.38</v>
+      </c>
+      <c r="E2">
+        <v>19.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10399</v>
+      </c>
+      <c r="D2">
+        <v>11013</v>
+      </c>
+      <c r="E2">
+        <v>11362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1.28</v>
+      </c>
+      <c r="D2">
+        <v>0.82</v>
+      </c>
+      <c r="E2">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>180</v>
+      </c>
+      <c r="E2">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1.35</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-504.24</v>
+      </c>
+      <c r="D2">
+        <v>21.65</v>
+      </c>
+      <c r="E2">
+        <v>30.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6161406</v>
+      </c>
+      <c r="D2">
+        <v>6161406</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-3</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-4</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-3</v>
+      </c>
+      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1043</v>
+      </c>
+      <c r="D2">
+        <v>1113</v>
+      </c>
+      <c r="E2">
+        <v>1215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>306</v>
+      </c>
+      <c r="D2">
+        <v>330</v>
+      </c>
+      <c r="E2">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>